--- a/VBA_Form.xlsx
+++ b/VBA_Form.xlsx
@@ -11,8 +11,16 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>sdf</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -342,12 +350,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="5:5">
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/VBA_Form.xlsx
+++ b/VBA_Form.xlsx
@@ -16,17 +16,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>sdf</t>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -54,8 +65,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,21 +362,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E4"/>
+  <dimension ref="E1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="4" spans="5:5">
-      <c r="E4" t="s">
+    <row r="1" spans="5:6">
+      <c r="E1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
